--- a/NCAATourney2018ResultsTeamIds.xlsx
+++ b/NCAATourney2018ResultsTeamIds.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\College\2017-2018\CSE 482\CSE482MarchMadness\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{29E586D1-56A6-4B2D-A047-6D8936A77912}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="14220" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="420" yWindow="0" windowWidth="14220" windowHeight="14460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,8 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +153,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -471,16 +485,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
